--- a/YMFHL2020Q2.xlsx
+++ b/YMFHL2020Q2.xlsx
@@ -396,16 +396,10 @@
     <t>39,000 TWD</t>
   </si>
   <si>
-    <t>70,004 TWD</t>
-  </si>
-  <si>
     <t>營業成本合計</t>
   </si>
   <si>
     <t>10,399 TWD</t>
-  </si>
-  <si>
-    <t>12,356.5 TWD</t>
   </si>
   <si>
     <t>營業毛利（毛損）</t>
@@ -679,6 +673,12 @@
   <si>
     <t>-3,625 TWD</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>76,166 TWD</t>
+  </si>
+  <si>
+    <t>18,518.5 TWD</t>
   </si>
 </sst>
 </file>
@@ -761,7 +761,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -792,8 +792,14 @@
         <bgColor rgb="FFF6F6F6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -873,11 +879,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -1014,36 +1050,42 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1341,8 +1383,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="63" t="s">
-        <v>209</v>
+      <c r="B1" s="54" t="s">
+        <v>207</v>
       </c>
       <c r="C1" s="55" t="s">
         <v>25</v>
@@ -2158,7 +2200,7 @@
       <c r="A1" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="64"/>
+      <c r="B1" s="57"/>
       <c r="C1" s="56"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2172,7 +2214,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18"/>
       <c r="B3" s="19" t="s">
         <v>27</v>
@@ -2181,42 +2223,42 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>121</v>
       </c>
       <c r="B4" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="65" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="B5" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="B5" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>126</v>
+      <c r="C5" s="66" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="22" t="s">
         <v>127</v>
-      </c>
-      <c r="B6" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B7" s="43">
         <v>0</v>
@@ -2227,7 +2269,7 @@
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="40" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B8" s="43">
         <v>0</v>
@@ -2238,21 +2280,21 @@
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C10" s="38">
         <v>0</v>
@@ -2260,7 +2302,7 @@
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B11" s="43">
         <v>0</v>
@@ -2271,40 +2313,40 @@
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A14" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" s="39" t="s">
         <v>140</v>
-      </c>
-      <c r="B14" s="43" t="s">
-        <v>141</v>
-      </c>
-      <c r="C14" s="39" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B15" s="43">
         <v>0</v>
@@ -2315,18 +2357,18 @@
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C16" s="39" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A17" s="34" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B17" s="43">
         <v>0</v>
@@ -2337,18 +2379,18 @@
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B18" s="43" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C18" s="39" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B19" s="43">
         <v>0</v>
@@ -2359,7 +2401,7 @@
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="42" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B20" s="43">
         <v>0</v>
@@ -2370,7 +2412,7 @@
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="42" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B21" s="43">
         <v>0</v>
@@ -2381,36 +2423,36 @@
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B22" s="43" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C22" s="39" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B23" s="43"/>
       <c r="C23" s="43"/>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B24" s="43" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C24" s="39" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B25" s="43">
         <v>0</v>
@@ -2421,18 +2463,18 @@
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B26" s="43" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C26" s="39" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B27" s="43">
         <v>0</v>
@@ -2443,7 +2485,7 @@
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B28" s="43" t="s">
         <v>117</v>
@@ -2454,7 +2496,7 @@
     </row>
     <row r="29" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B29" s="43" t="s">
         <v>117</v>
@@ -2469,6 +2511,7 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2493,7 +2536,7 @@
       <c r="A1" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="64"/>
+      <c r="B1" s="57"/>
       <c r="C1" s="56"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2518,29 +2561,29 @@
     </row>
     <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="38" t="s">
         <v>158</v>
-      </c>
-      <c r="B4" s="45" t="s">
-        <v>159</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B5" s="43">
         <v>0</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B6" s="43">
         <v>0</v>
@@ -2551,7 +2594,7 @@
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B7" s="43">
         <v>0</v>
@@ -2562,18 +2605,18 @@
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B8" s="45" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B9" s="43" t="s">
         <v>34</v>
@@ -2584,7 +2627,7 @@
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B10" s="43" t="s">
         <v>35</v>
@@ -2595,7 +2638,7 @@
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B11" s="43" t="s">
         <v>35</v>
@@ -2670,11 +2713,11 @@
       <c r="T1" s="6"/>
     </row>
     <row r="2" spans="1:20" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="58">
+      <c r="A2" s="52">
         <v>43921</v>
       </c>
-      <c r="B2" s="59" t="s">
-        <v>206</v>
+      <c r="B2" s="53" t="s">
+        <v>204</v>
       </c>
       <c r="C2" s="49"/>
       <c r="D2" s="7"/>
@@ -2685,7 +2728,7 @@
       <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="63" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="10" t="s">
@@ -2705,12 +2748,12 @@
         <v>161497</v>
       </c>
       <c r="G3" s="9"/>
-      <c r="H3" s="52" t="s">
+      <c r="H3" s="58" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
+      <c r="A4" s="59"/>
       <c r="B4" s="12" t="s">
         <v>14</v>
       </c>
@@ -2728,10 +2771,10 @@
         <v>159497</v>
       </c>
       <c r="G4" s="9"/>
-      <c r="H4" s="53"/>
+      <c r="H4" s="59"/>
     </row>
     <row r="5" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="53"/>
+      <c r="A5" s="59"/>
       <c r="B5" s="10" t="s">
         <v>10</v>
       </c>
@@ -2749,10 +2792,10 @@
         <v>158923</v>
       </c>
       <c r="G5" s="9"/>
-      <c r="H5" s="53"/>
+      <c r="H5" s="59"/>
     </row>
     <row r="6" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="63" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -2772,12 +2815,12 @@
         <v>157923</v>
       </c>
       <c r="G6" s="9"/>
-      <c r="H6" s="61" t="s">
-        <v>207</v>
+      <c r="H6" s="60" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="53"/>
+      <c r="A7" s="59"/>
       <c r="B7" s="10" t="s">
         <v>17</v>
       </c>
@@ -2795,10 +2838,10 @@
         <v>156923</v>
       </c>
       <c r="G7" s="9"/>
-      <c r="H7" s="60"/>
+      <c r="H7" s="61"/>
     </row>
     <row r="8" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="53"/>
+      <c r="A8" s="59"/>
       <c r="B8" s="10" t="s">
         <v>18</v>
       </c>
@@ -2816,10 +2859,10 @@
         <v>153450</v>
       </c>
       <c r="G8" s="9"/>
-      <c r="H8" s="60"/>
+      <c r="H8" s="61"/>
     </row>
     <row r="9" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
+      <c r="A9" s="59"/>
       <c r="B9" s="10" t="s">
         <v>19</v>
       </c>
@@ -2837,10 +2880,10 @@
         <v>152450</v>
       </c>
       <c r="G9" s="9"/>
-      <c r="H9" s="60"/>
+      <c r="H9" s="61"/>
     </row>
     <row r="10" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="63" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -2861,11 +2904,11 @@
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="62" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="53"/>
+      <c r="A11" s="59"/>
       <c r="B11" s="10" t="s">
         <v>22</v>
       </c>
@@ -2883,10 +2926,10 @@
         <v>147169</v>
       </c>
       <c r="G11" s="9"/>
-      <c r="H11" s="60"/>
+      <c r="H11" s="61"/>
     </row>
     <row r="12" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="53"/>
+      <c r="A12" s="59"/>
       <c r="B12" s="10" t="s">
         <v>23</v>
       </c>
@@ -2904,10 +2947,10 @@
         <v>147097</v>
       </c>
       <c r="G12" s="9"/>
-      <c r="H12" s="60"/>
+      <c r="H12" s="61"/>
     </row>
     <row r="13" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="53"/>
+      <c r="A13" s="59"/>
       <c r="B13" s="10" t="s">
         <v>8</v>
       </c>
@@ -2925,10 +2968,10 @@
         <v>146588</v>
       </c>
       <c r="G13" s="9"/>
-      <c r="H13" s="60"/>
+      <c r="H13" s="61"/>
     </row>
     <row r="14" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="53"/>
+      <c r="A14" s="59"/>
       <c r="B14" s="10" t="s">
         <v>24</v>
       </c>
@@ -11016,55 +11059,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="57" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="D2" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>173</v>
-      </c>
       <c r="E2" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>173</v>
-      </c>
       <c r="I2" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>180</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>182</v>
       </c>
       <c r="C3" s="12">
         <v>0</v>
@@ -11073,10 +11116,10 @@
         <v>4590</v>
       </c>
       <c r="E3" s="47" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F3" s="47" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G3" s="48">
         <v>0</v>
@@ -11085,15 +11128,15 @@
         <v>1000</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E4" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G4" s="12">
         <v>0</v>
@@ -11102,15 +11145,15 @@
         <v>4590</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C6" s="12">
         <v>0</v>
@@ -11120,10 +11163,10 @@
         <v>4590</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G6">
         <f>SUM(G2:G3)</f>
@@ -11135,26 +11178,26 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="64" t="s">
+        <v>182</v>
+      </c>
+      <c r="B8" s="59"/>
+      <c r="C8" s="64" t="s">
+        <v>183</v>
+      </c>
+      <c r="D8" s="59"/>
+      <c r="E8" s="64" t="s">
         <v>184</v>
       </c>
-      <c r="B8" s="53"/>
-      <c r="C8" s="57" t="s">
-        <v>185</v>
-      </c>
-      <c r="D8" s="53"/>
-      <c r="E8" s="57" t="s">
-        <v>186</v>
-      </c>
-      <c r="F8" s="53"/>
-      <c r="G8" s="57" t="s">
-        <v>177</v>
-      </c>
-      <c r="H8" s="53"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="64" t="s">
+        <v>175</v>
+      </c>
+      <c r="H8" s="59"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D9" s="12">
         <v>25</v>
@@ -11162,7 +11205,7 @@
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="13" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D10" s="12">
         <v>2000</v>
@@ -11186,28 +11229,28 @@
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B13">
         <f>SUM(B9:B10)</f>
         <v>0</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D13">
         <f>SUM(D9:D11)</f>
         <v>2599</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F13">
         <f>SUM(F9:F10)</f>
         <v>0</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H13">
         <f>SUM(H9:H11)</f>
@@ -11215,44 +11258,44 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="57" t="s">
+      <c r="A15" s="64" t="s">
+        <v>185</v>
+      </c>
+      <c r="B15" s="59"/>
+      <c r="C15" s="64" t="s">
+        <v>186</v>
+      </c>
+      <c r="D15" s="59"/>
+      <c r="E15" s="64" t="s">
         <v>187</v>
       </c>
-      <c r="B15" s="53"/>
-      <c r="C15" s="57" t="s">
+      <c r="F15" s="59"/>
+      <c r="G15" s="64" t="s">
         <v>188</v>
       </c>
-      <c r="D15" s="53"/>
-      <c r="E15" s="57" t="s">
-        <v>189</v>
-      </c>
-      <c r="F15" s="53"/>
-      <c r="G15" s="57" t="s">
-        <v>190</v>
-      </c>
-      <c r="H15" s="53"/>
+      <c r="H15" s="59"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B16" s="12">
         <v>0</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D16" s="12">
         <v>0</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F16" s="12">
         <v>0</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H16" s="12">
         <v>0</v>
@@ -11260,7 +11303,7 @@
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B20">
         <f>D6-H6+B13-D13-F13+H13+B16-D16-F16+H16</f>
@@ -11269,7 +11312,7 @@
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B21" s="12">
         <v>176105</v>
@@ -11277,7 +11320,7 @@
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B22" s="12">
         <v>172506</v>
@@ -11319,55 +11362,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="57" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="D2" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>173</v>
-      </c>
       <c r="E2" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>173</v>
-      </c>
       <c r="I2" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E3" s="47" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F3" s="47" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G3" s="48">
         <v>0</v>
@@ -11376,15 +11419,15 @@
         <v>1000</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E4" s="47" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F4" s="47" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G4" s="48">
         <v>0</v>
@@ -11393,15 +11436,15 @@
         <v>1000</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E5" s="12" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G5" s="12">
         <v>0</v>
@@ -11410,15 +11453,15 @@
         <v>3473</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E6" s="47" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G6" s="12">
         <v>0</v>
@@ -11427,7 +11470,7 @@
         <v>1000</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11435,10 +11478,10 @@
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C8" s="12">
         <v>0</v>
@@ -11448,10 +11491,10 @@
         <v>0</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G8">
         <f>SUM(G4:G5)</f>
@@ -11463,27 +11506,27 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="64" t="s">
+        <v>182</v>
+      </c>
+      <c r="B10" s="59"/>
+      <c r="C10" s="64" t="s">
+        <v>183</v>
+      </c>
+      <c r="D10" s="59"/>
+      <c r="E10" s="64" t="s">
         <v>184</v>
       </c>
-      <c r="B10" s="53"/>
-      <c r="C10" s="57" t="s">
-        <v>185</v>
-      </c>
-      <c r="D10" s="53"/>
-      <c r="E10" s="57" t="s">
-        <v>186</v>
-      </c>
-      <c r="F10" s="53"/>
-      <c r="G10" s="57" t="s">
-        <v>177</v>
-      </c>
-      <c r="H10" s="53"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="64" t="s">
+        <v>175</v>
+      </c>
+      <c r="H10" s="59"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="13"/>
       <c r="G11" s="47" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H11" s="12">
         <v>3000</v>
@@ -11494,28 +11537,28 @@
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B13">
         <f>SUM(B10)</f>
         <v>0</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D13">
         <f>SUM(D10:D11)</f>
         <v>0</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F13">
         <f>SUM(F10)</f>
         <v>0</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H13">
         <f>SUM(H10:H11)</f>
@@ -11523,44 +11566,44 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="57" t="s">
+      <c r="A15" s="64" t="s">
+        <v>185</v>
+      </c>
+      <c r="B15" s="59"/>
+      <c r="C15" s="64" t="s">
+        <v>186</v>
+      </c>
+      <c r="D15" s="59"/>
+      <c r="E15" s="64" t="s">
         <v>187</v>
       </c>
-      <c r="B15" s="53"/>
-      <c r="C15" s="57" t="s">
+      <c r="F15" s="59"/>
+      <c r="G15" s="64" t="s">
         <v>188</v>
       </c>
-      <c r="D15" s="53"/>
-      <c r="E15" s="57" t="s">
-        <v>189</v>
-      </c>
-      <c r="F15" s="53"/>
-      <c r="G15" s="57" t="s">
-        <v>190</v>
-      </c>
-      <c r="H15" s="53"/>
+      <c r="H15" s="59"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B16" s="12">
         <v>0</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D16" s="12">
         <v>0</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F16" s="12">
         <v>0</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H16" s="12">
         <v>0</v>
@@ -11568,7 +11611,7 @@
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B19">
         <f>D8-H8+B13-D13-F13+H13+B16-D16-F16+H16</f>
@@ -11577,7 +11620,7 @@
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B20" s="12">
         <v>172506</v>
@@ -11585,7 +11628,7 @@
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B21" s="12">
         <v>169033</v>
@@ -11630,47 +11673,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="57" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="D2" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>173</v>
-      </c>
       <c r="E2" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>173</v>
-      </c>
       <c r="I2" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11678,7 +11721,7 @@
         <v>22</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C3" s="12">
         <v>0</v>
@@ -11687,10 +11730,10 @@
         <v>1576</v>
       </c>
       <c r="E3" s="47" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F3" s="47" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G3" s="48">
         <v>4000</v>
@@ -11699,7 +11742,7 @@
         <v>2927</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11707,7 +11750,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C4" s="12">
         <v>0</v>
@@ -11719,7 +11762,7 @@
         <v>22</v>
       </c>
       <c r="F4" s="47" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G4" s="48">
         <v>0</v>
@@ -11728,15 +11771,15 @@
         <v>3930</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E5" s="12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G5" s="12">
         <v>0</v>
@@ -11745,7 +11788,7 @@
         <v>72</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11753,7 +11796,7 @@
         <v>8</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G6" s="12">
         <v>0</v>
@@ -11762,7 +11805,7 @@
         <v>509</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11770,10 +11813,10 @@
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C8" s="12">
         <v>0</v>
@@ -11783,10 +11826,10 @@
         <v>1712</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G8">
         <f>SUM(G4:G5)</f>
@@ -11798,22 +11841,22 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="64" t="s">
+        <v>182</v>
+      </c>
+      <c r="B10" s="59"/>
+      <c r="C10" s="64" t="s">
+        <v>183</v>
+      </c>
+      <c r="D10" s="59"/>
+      <c r="E10" s="64" t="s">
         <v>184</v>
       </c>
-      <c r="B10" s="53"/>
-      <c r="C10" s="57" t="s">
-        <v>185</v>
-      </c>
-      <c r="D10" s="53"/>
-      <c r="E10" s="57" t="s">
-        <v>186</v>
-      </c>
-      <c r="F10" s="53"/>
-      <c r="G10" s="57" t="s">
-        <v>177</v>
-      </c>
-      <c r="H10" s="53"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="64" t="s">
+        <v>175</v>
+      </c>
+      <c r="H10" s="59"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="47">
@@ -11829,28 +11872,28 @@
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B13">
         <f>SUM(B10)</f>
         <v>0</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D13">
         <f>SUM(D10:D11)</f>
         <v>3000</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F13">
         <f>SUM(F10)</f>
         <v>0</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H13">
         <f>SUM(H10:H11)</f>
@@ -11858,44 +11901,44 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="57" t="s">
+      <c r="A15" s="64" t="s">
+        <v>185</v>
+      </c>
+      <c r="B15" s="59"/>
+      <c r="C15" s="64" t="s">
+        <v>186</v>
+      </c>
+      <c r="D15" s="59"/>
+      <c r="E15" s="64" t="s">
         <v>187</v>
       </c>
-      <c r="B15" s="53"/>
-      <c r="C15" s="57" t="s">
+      <c r="F15" s="59"/>
+      <c r="G15" s="64" t="s">
         <v>188</v>
       </c>
-      <c r="D15" s="53"/>
-      <c r="E15" s="57" t="s">
-        <v>189</v>
-      </c>
-      <c r="F15" s="53"/>
-      <c r="G15" s="57" t="s">
-        <v>190</v>
-      </c>
-      <c r="H15" s="53"/>
+      <c r="H15" s="59"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B16" s="12">
         <v>0</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D16" s="12">
         <v>0</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F16" s="12">
         <v>0</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H16" s="12">
         <v>0</v>
@@ -11903,7 +11946,7 @@
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B18">
         <f>D8-H8+B13-D13-F13+H13+B16-D16-F16+H16</f>
@@ -11912,7 +11955,7 @@
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B19" s="12">
         <v>169033</v>
@@ -11920,7 +11963,7 @@
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B20" s="12">
         <v>160307</v>
